--- a/URS/DbLayouts/L5-管理性作業/NegAppr02.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegAppr02.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31561951-853D-4EDE-B695-769DE3051440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -341,11 +334,27 @@
     <t>要在BACHTX01那邊處理寫入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TxKind</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常
+1:溢繳
+2:短繳
+3:大額還本
+4:結清</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -536,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,11 +671,14 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,6 +769,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -792,6 +821,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -967,11 +1013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1377,39 +1423,41 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="81">
       <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>59</v>
+      <c r="B24" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1</v>
+      </c>
       <c r="F24" s="26"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>17</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="25">
-        <v>6</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E25" s="25"/>
       <c r="F25" s="26"/>
       <c r="G25" s="23"/>
     </row>
@@ -1418,34 +1466,53 @@
         <v>18</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="E26" s="25">
+        <v>6</v>
+      </c>
       <c r="F26" s="26"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>19</v>
       </c>
       <c r="B27" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="19">
+        <v>20</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C28" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E28" s="25">
         <v>6</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1464,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/URS/DbLayouts/L5-管理性作業/NegAppr02.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegAppr02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31561951-853D-4EDE-B695-769DE3051440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C9995C-F272-487D-9442-EDB38623429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,21 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>會計日期+戶號 對應 NegTrans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -329,10 +334,6 @@
   <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>要在BACHTX01那邊處理寫入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TxKind</t>
@@ -349,6 +350,60 @@
   <si>
     <t>銷帳編號</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxStatus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易狀態</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未入專戶
+1:已入客戶暫收
+2:已入帳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要在BACHTX03寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegTransAcDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegTransTlrNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegTransTxtNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易檔會計日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易檔經辦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易檔序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收解入時寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做整批入帳連動L3210時寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -660,6 +715,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -671,9 +729,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1032,10 +1087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
@@ -1047,8 +1102,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1060,10 +1115,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
@@ -1075,10 +1130,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1086,10 +1141,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1097,10 +1152,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1108,10 +1163,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1146,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>29</v>
@@ -1365,20 +1420,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" s="24" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
       </c>
       <c r="E21" s="25">
         <v>7</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="129.6">
@@ -1407,7 +1462,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>40</v>
@@ -1419,8 +1474,8 @@
         <v>8</v>
       </c>
       <c r="F23" s="26"/>
-      <c r="G23" s="23" t="s">
-        <v>55</v>
+      <c r="G23" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="81">
@@ -1428,10 +1483,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>41</v>
@@ -1441,78 +1496,158 @@
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48.6">
       <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>59</v>
+      <c r="B25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>62</v>
+      <c r="B26" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E26" s="25">
-        <v>6</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>19</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>64</v>
+      <c r="B27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="E27" s="25">
+        <v>6</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="19">
         <v>20</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="25">
+        <v>8</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="19">
+        <v>21</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19">
+        <v>22</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="25">
+        <v>6</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="19">
+        <v>23</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19">
+        <v>24</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="24" t="s">
+      <c r="D32" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E32" s="25">
         <v>6</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1560,35 +1695,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
